--- a/NICHOLAS.xlsx
+++ b/NICHOLAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="14295" windowHeight="6555" firstSheet="76" activeTab="76"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="14295" windowHeight="6555" firstSheet="74" activeTab="76"/>
   </bookViews>
   <sheets>
     <sheet name="MARCH STATEMENT " sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4770" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4770" uniqueCount="378">
   <si>
     <t>ASSET FLOW LTD</t>
   </si>
@@ -1227,6 +1227,9 @@
   <si>
     <t>FOR THE MONTH OFDECEMBER 2021</t>
   </si>
+  <si>
+    <t>PAID ON  9/12</t>
+  </si>
 </sst>
 </file>
 
@@ -4191,7 +4194,7 @@
       <c r="C25" s="87"/>
       <c r="D25" s="88">
         <f ca="1">SUM(D23:D26)</f>
-        <v>19377732112</v>
+        <v>19380679312</v>
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="32"/>
@@ -66440,8 +66443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66830,10 +66833,12 @@
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="R9" s="83"/>
+      <c r="R9" s="83">
+        <v>2500</v>
+      </c>
       <c r="S9" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T9" s="69"/>
     </row>
@@ -67490,9 +67495,7 @@
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="T22" s="69" t="s">
-        <v>31</v>
-      </c>
+      <c r="T22" s="69"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
@@ -68390,11 +68393,11 @@
       </c>
       <c r="R44" s="83">
         <f t="shared" si="4"/>
-        <v>32500</v>
+        <v>35000</v>
       </c>
       <c r="S44" s="83">
         <f t="shared" si="4"/>
-        <v>37500</v>
+        <v>35000</v>
       </c>
       <c r="T44" s="69"/>
     </row>
@@ -68418,7 +68421,7 @@
       <c r="Q45" s="69"/>
       <c r="R45" s="69">
         <f>R44-O44</f>
-        <v>32000</v>
+        <v>34500</v>
       </c>
       <c r="S45" s="69"/>
       <c r="T45" s="69"/>
@@ -68502,7 +68505,7 @@
       <c r="D49" s="69"/>
       <c r="E49" s="65">
         <f>D33+O60</f>
-        <v>28498</v>
+        <v>30798</v>
       </c>
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
@@ -68510,7 +68513,7 @@
       <c r="I49" s="69"/>
       <c r="J49" s="65">
         <f>H33+S60</f>
-        <v>28498</v>
+        <v>30798</v>
       </c>
       <c r="K49" s="69"/>
       <c r="L49" s="95" t="s">
@@ -68556,7 +68559,7 @@
       </c>
       <c r="M50" s="137">
         <f>R45</f>
-        <v>32000</v>
+        <v>34500</v>
       </c>
       <c r="N50" s="85"/>
       <c r="O50" s="137"/>
@@ -68565,7 +68568,7 @@
       </c>
       <c r="Q50" s="137">
         <f>R44</f>
-        <v>32500</v>
+        <v>35000</v>
       </c>
       <c r="R50" s="85"/>
       <c r="S50" s="10"/>
@@ -68623,7 +68626,7 @@
       </c>
       <c r="N52" s="10">
         <f>M52*M50</f>
-        <v>2560</v>
+        <v>2760</v>
       </c>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
@@ -68632,7 +68635,7 @@
       </c>
       <c r="R52" s="10">
         <f>N52</f>
-        <v>2560</v>
+        <v>2760</v>
       </c>
       <c r="S52" s="10"/>
       <c r="T52" s="69"/>
@@ -68828,7 +68831,7 @@
       <c r="H60" s="69"/>
       <c r="I60" s="179">
         <f>D33+S60</f>
-        <v>28498</v>
+        <v>30798</v>
       </c>
       <c r="J60" s="69"/>
       <c r="K60" s="69"/>
@@ -68837,7 +68840,7 @@
       </c>
       <c r="M60" s="165">
         <f>M50+M51+M53-N52</f>
-        <v>46340</v>
+        <v>48640</v>
       </c>
       <c r="N60" s="164">
         <f>SUM(N55:N59)</f>
@@ -68845,12 +68848,12 @@
       </c>
       <c r="O60" s="165">
         <f>M60-N60</f>
-        <v>28498</v>
+        <v>30798</v>
       </c>
       <c r="P60" s="166"/>
       <c r="Q60" s="165">
         <f>Q50+Q51-R52</f>
-        <v>46340</v>
+        <v>48640</v>
       </c>
       <c r="R60" s="165">
         <f>SUM(R55:R58)</f>
@@ -68858,7 +68861,7 @@
       </c>
       <c r="S60" s="165">
         <f>Q60-R60</f>
-        <v>28498</v>
+        <v>30798</v>
       </c>
       <c r="T60" s="69"/>
     </row>
@@ -68918,7 +68921,7 @@
       <c r="I63" s="69"/>
       <c r="J63" s="65">
         <f>O60+C29</f>
-        <v>28498</v>
+        <v>30798</v>
       </c>
       <c r="K63" s="69"/>
       <c r="L63" s="69" t="s">
@@ -69033,10 +69036,10 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S71"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69045,10 +69048,35 @@
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="69"/>
+      <c r="B1" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+    </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
@@ -69062,7 +69090,7 @@
       <c r="L2" s="69"/>
       <c r="M2" s="69"/>
       <c r="N2" s="125" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O2" s="125"/>
       <c r="P2" s="125"/>
@@ -69073,7 +69101,7 @@
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="125" t="s">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="C3" s="125"/>
       <c r="D3" s="125"/>
@@ -69087,7 +69115,7 @@
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
       <c r="N3" s="125" t="s">
-        <v>177</v>
+        <v>376</v>
       </c>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
@@ -69095,202 +69123,228 @@
       <c r="R3" s="69"/>
       <c r="S3" s="69"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="125" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="177" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>144</v>
+      </c>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
       <c r="J4" s="69"/>
       <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="125" t="s">
-        <v>376</v>
-      </c>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
+      <c r="L4" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="N4" s="119" t="s">
+        <v>265</v>
+      </c>
+      <c r="O4" s="119" t="s">
+        <v>266</v>
+      </c>
+      <c r="P4" s="119" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q4" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="119" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="175" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="175" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="175" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="176" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="177" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="95" t="s">
-        <v>144</v>
+      <c r="A5" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="131">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <f>'NOVEMBER 21'!G5:G18</f>
+        <v>7500</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="10">
+        <f>C5+D5</f>
+        <v>10000</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <f>E5-F5</f>
+        <v>10000</v>
       </c>
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
       <c r="J5" s="69"/>
       <c r="K5" s="69"/>
-      <c r="L5" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="M5" s="119" t="s">
-        <v>264</v>
-      </c>
-      <c r="N5" s="119" t="s">
-        <v>265</v>
-      </c>
-      <c r="O5" s="119" t="s">
-        <v>266</v>
-      </c>
-      <c r="P5" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q5" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="119" t="s">
-        <v>98</v>
+      <c r="L5" s="178" t="s">
+        <v>367</v>
+      </c>
+      <c r="M5" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="N5" s="83">
+        <v>2500</v>
+      </c>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83">
+        <f>'NOVEMBER 21'!S5:S43</f>
+        <v>2500</v>
+      </c>
+      <c r="Q5" s="83">
+        <f>N5+O5+P5</f>
+        <v>5000</v>
+      </c>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83">
+        <f>Q5-R5</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="131">
-        <v>1</v>
+        <v>235</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
       </c>
       <c r="C6" s="10">
-        <f>'NOVEMBER 21'!G5:G18</f>
+        <f>'NOVEMBER 21'!G6:G19</f>
         <v>7500</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>2500</v>
       </c>
       <c r="E6" s="10">
-        <f>C6+D6</f>
+        <f t="shared" ref="E6:E17" si="0">C6+D6</f>
         <v>10000</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10">
-        <f>E6-F6</f>
+        <f t="shared" ref="G6:G17" si="1">E6-F6</f>
         <v>10000</v>
       </c>
-      <c r="H6" s="69"/>
+      <c r="H6" s="69" t="s">
+        <v>31</v>
+      </c>
       <c r="I6" s="69"/>
       <c r="J6" s="69"/>
       <c r="K6" s="69"/>
-      <c r="L6" s="178" t="s">
-        <v>367</v>
+      <c r="L6" s="83" t="s">
+        <v>328</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N6" s="83">
         <v>2500</v>
       </c>
       <c r="O6" s="83"/>
       <c r="P6" s="83">
-        <f>'NOVEMBER 21'!S5:S43</f>
+        <f>'NOVEMBER 21'!S6:S44</f>
         <v>2500</v>
       </c>
       <c r="Q6" s="83">
-        <f>N6+O6+P6</f>
+        <f t="shared" ref="Q6:Q43" si="2">N6+O6+P6</f>
         <v>5000</v>
       </c>
       <c r="R6" s="83"/>
       <c r="S6" s="83">
-        <f>Q6-R6</f>
+        <f t="shared" ref="S6:S43" si="3">Q6-R6</f>
         <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>235</v>
+        <v>351</v>
       </c>
       <c r="B7" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="10">
-        <f>'NOVEMBER 21'!G6:G19</f>
+        <f>'NOVEMBER 21'!G7:G20</f>
         <v>2500</v>
       </c>
       <c r="D7" s="12">
         <v>2500</v>
       </c>
       <c r="E7" s="10">
-        <f t="shared" ref="E7:E18" si="0">C7+D7</f>
+        <f>C7+D7</f>
         <v>5000</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>2500</v>
+      </c>
       <c r="G7" s="10">
-        <f t="shared" ref="G7:G18" si="1">E7-F7</f>
-        <v>5000</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>31</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="H7" s="69"/>
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
       <c r="K7" s="69"/>
-      <c r="L7" s="83" t="s">
-        <v>328</v>
+      <c r="L7" s="178" t="s">
+        <v>82</v>
       </c>
       <c r="M7" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="N7" s="83">
-        <v>2500</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N7" s="83"/>
       <c r="O7" s="83"/>
       <c r="P7" s="83">
-        <f>'NOVEMBER 21'!S6:S44</f>
+        <f>'NOVEMBER 21'!S7:S45</f>
         <v>0</v>
       </c>
       <c r="Q7" s="83">
-        <f t="shared" ref="Q7:Q44" si="2">N7+O7+P7</f>
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R7" s="83"/>
       <c r="S7" s="83">
-        <f t="shared" ref="S7:S44" si="3">Q7-R7</f>
-        <v>2500</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>351</v>
+      <c r="A8" s="163" t="s">
+        <v>82</v>
       </c>
       <c r="B8" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="10">
-        <f>'NOVEMBER 21'!G7:G20</f>
+        <f>'NOVEMBER 21'!G8:G21</f>
         <v>7500</v>
       </c>
       <c r="D8" s="12">
         <v>2500</v>
       </c>
       <c r="E8" s="10">
-        <f>C8+D8</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="F8" s="10"/>
@@ -69298,20 +69352,20 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H8" s="69"/>
+      <c r="H8" s="69" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" s="69"/>
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>
-      <c r="L8" s="178" t="s">
-        <v>82</v>
-      </c>
+      <c r="L8" s="83"/>
       <c r="M8" s="83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N8" s="83"/>
       <c r="O8" s="83"/>
       <c r="P8" s="83">
-        <f>'NOVEMBER 21'!S7:S45</f>
+        <f>'NOVEMBER 21'!S8:S46</f>
         <v>0</v>
       </c>
       <c r="Q8" s="83">
@@ -69325,14 +69379,14 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="163" t="s">
-        <v>82</v>
+      <c r="A9" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="B9" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="10">
-        <f>'NOVEMBER 21'!G8:G21</f>
+        <f>'NOVEMBER 21'!G9:G22</f>
         <v>7500</v>
       </c>
       <c r="D9" s="12">
@@ -69353,35 +69407,41 @@
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
-      <c r="L9" s="83"/>
+      <c r="L9" s="83" t="s">
+        <v>369</v>
+      </c>
       <c r="M9" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="N9" s="83"/>
+        <v>272</v>
+      </c>
+      <c r="N9" s="83">
+        <v>2500</v>
+      </c>
       <c r="O9" s="83"/>
       <c r="P9" s="83">
-        <f>'NOVEMBER 21'!S8:S46</f>
-        <v>2500</v>
+        <f>'NOVEMBER 21'!S9:S47</f>
+        <v>0</v>
       </c>
       <c r="Q9" s="83">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="R9" s="83"/>
+      <c r="R9" s="83">
+        <v>2500</v>
+      </c>
       <c r="S9" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="B10" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="10">
-        <f>'NOVEMBER 21'!G9:G22</f>
+        <f>'NOVEMBER 21'!G10:G23</f>
         <v>0</v>
       </c>
       <c r="D10" s="12">
@@ -69391,29 +69451,29 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10">
+        <v>2500</v>
+      </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="H10" s="69" t="s">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" s="69"/>
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
       <c r="L10" s="83" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="N10" s="83">
         <v>2500</v>
       </c>
       <c r="O10" s="83"/>
       <c r="P10" s="83">
-        <f>'NOVEMBER 21'!S9:S47</f>
+        <f>'NOVEMBER 21'!S10:S48</f>
         <v>2500</v>
       </c>
       <c r="Q10" s="83">
@@ -69427,148 +69487,142 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>132</v>
+      <c r="A11" s="104" t="s">
+        <v>253</v>
       </c>
       <c r="B11" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="10">
-        <f>'NOVEMBER 21'!G10:G23</f>
+        <f>'NOVEMBER 21'!G11:G24</f>
         <v>9000</v>
       </c>
       <c r="D11" s="12">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
-        <v>11500</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2500</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="10">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="H11" s="69"/>
       <c r="I11" s="69"/>
       <c r="J11" s="69"/>
       <c r="K11" s="69"/>
-      <c r="L11" s="83" t="s">
-        <v>307</v>
-      </c>
+      <c r="L11" s="124"/>
       <c r="M11" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="N11" s="83">
-        <v>2500</v>
-      </c>
-      <c r="O11" s="83"/>
+        <v>273</v>
+      </c>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83">
+        <v>500</v>
+      </c>
       <c r="P11" s="83">
-        <f>'NOVEMBER 21'!S10:S48</f>
+        <f>'NOVEMBER 21'!S11:S49</f>
         <v>0</v>
       </c>
       <c r="Q11" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="R11" s="83"/>
       <c r="S11" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="104" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="11">
-        <v>7</v>
+        <v>120</v>
+      </c>
+      <c r="B12" s="105">
+        <v>8</v>
       </c>
       <c r="C12" s="10">
-        <f>'NOVEMBER 21'!G11:G24</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>3000</v>
+        <f>'NOVEMBER 21'!G12:G25</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2500</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>2500</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2500</v>
+      </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H12" s="69"/>
       <c r="I12" s="69"/>
       <c r="J12" s="69"/>
       <c r="K12" s="69"/>
-      <c r="L12" s="124" t="s">
-        <v>363</v>
+      <c r="L12" s="94" t="s">
+        <v>136</v>
       </c>
       <c r="M12" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="N12" s="83">
-        <v>2500</v>
-      </c>
-      <c r="O12" s="83">
-        <v>500</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
       <c r="P12" s="83">
-        <f>'NOVEMBER 21'!S11:S49</f>
+        <f>'NOVEMBER 21'!S12:S50</f>
         <v>0</v>
       </c>
       <c r="Q12" s="83">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R12" s="83"/>
       <c r="S12" s="83">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
-        <v>120</v>
+      <c r="A13" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B13" s="105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="10">
-        <f>'NOVEMBER 21'!G12:G25</f>
+        <f>'NOVEMBER 21'!G13:G26</f>
         <v>0</v>
       </c>
       <c r="D13" s="13">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="H13" s="69"/>
       <c r="I13" s="69"/>
       <c r="J13" s="69"/>
       <c r="K13" s="69"/>
-      <c r="L13" s="94" t="s">
-        <v>136</v>
+      <c r="L13" s="178" t="s">
+        <v>310</v>
       </c>
       <c r="M13" s="83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N13" s="83"/>
       <c r="O13" s="83"/>
       <c r="P13" s="83">
-        <f>'NOVEMBER 21'!S12:S50</f>
+        <f>'NOVEMBER 21'!S13:S51</f>
         <v>0</v>
       </c>
       <c r="Q13" s="83">
@@ -69583,30 +69637,30 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="105">
-        <v>9</v>
+        <v>353</v>
+      </c>
+      <c r="B14" s="11">
+        <v>10</v>
       </c>
       <c r="C14" s="10">
-        <f>'NOVEMBER 21'!G13:G26</f>
+        <f>'NOVEMBER 21'!G14:G27</f>
         <v>7500</v>
       </c>
-      <c r="D14" s="13">
-        <v>5500</v>
+      <c r="D14" s="12">
+        <v>2500</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>13000</v>
-      </c>
-      <c r="F14" s="10">
-        <v>6000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>7000</v>
-      </c>
-      <c r="H14" s="69"/>
+        <v>10000</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="69"/>
       <c r="J14" s="69"/>
       <c r="K14" s="69"/>
@@ -69614,12 +69668,12 @@
         <v>310</v>
       </c>
       <c r="M14" s="83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N14" s="83"/>
       <c r="O14" s="83"/>
       <c r="P14" s="83">
-        <f>'NOVEMBER 21'!S13:S51</f>
+        <f>'NOVEMBER 21'!S14:S52</f>
         <v>0</v>
       </c>
       <c r="Q14" s="83">
@@ -69634,13 +69688,13 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>353</v>
+        <v>200</v>
       </c>
       <c r="B15" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="10">
-        <f>'NOVEMBER 21'!G14:G27</f>
+        <f>'NOVEMBER 21'!G15:G28</f>
         <v>7500</v>
       </c>
       <c r="D15" s="12">
@@ -69661,16 +69715,16 @@
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
       <c r="K15" s="69"/>
-      <c r="L15" s="178" t="s">
-        <v>310</v>
+      <c r="L15" s="94" t="s">
+        <v>136</v>
       </c>
       <c r="M15" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N15" s="83"/>
       <c r="O15" s="83"/>
       <c r="P15" s="83">
-        <f>'NOVEMBER 21'!S14:S52</f>
+        <f>'NOVEMBER 21'!S15:S53</f>
         <v>0</v>
       </c>
       <c r="Q15" s="83">
@@ -69684,31 +69738,31 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>200</v>
+      <c r="A16" s="104" t="s">
+        <v>30</v>
       </c>
       <c r="B16" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="10">
-        <f>'NOVEMBER 21'!G15:G28</f>
+        <f>'NOVEMBER 21'!G16:G29</f>
         <v>0</v>
       </c>
       <c r="D16" s="12">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>5000</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5000</v>
+      </c>
       <c r="G16" s="10">
         <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" s="69"/>
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
       <c r="K16" s="69"/>
@@ -69716,12 +69770,12 @@
         <v>136</v>
       </c>
       <c r="M16" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N16" s="83"/>
       <c r="O16" s="83"/>
       <c r="P16" s="83">
-        <f>'NOVEMBER 21'!S15:S53</f>
+        <f>'NOVEMBER 21'!S16:S54</f>
         <v>0</v>
       </c>
       <c r="Q16" s="83">
@@ -69736,30 +69790,30 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B17" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="10">
-        <f>'NOVEMBER 21'!G16:G29</f>
+        <f>'NOVEMBER 21'!G17:G30</f>
         <v>7500</v>
       </c>
       <c r="D17" s="12">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
-        <v>12500</v>
-      </c>
-      <c r="F17" s="10">
-        <v>5000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="H17" s="69"/>
+        <v>10000</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>31</v>
+      </c>
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
       <c r="K17" s="69"/>
@@ -69767,12 +69821,12 @@
         <v>136</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N17" s="83"/>
       <c r="O17" s="83"/>
       <c r="P17" s="83">
-        <f>'NOVEMBER 21'!S16:S54</f>
+        <f>'NOVEMBER 21'!S17:S55</f>
         <v>0</v>
       </c>
       <c r="Q17" s="83">
@@ -69786,31 +69840,17 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="11">
-        <v>13</v>
-      </c>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="10">
-        <f>'NOVEMBER 21'!G17:G30</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
-        <v>2500</v>
-      </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
+        <f>'NOVEMBER 21'!G18:G31</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>31</v>
-      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
       <c r="K18" s="69"/>
@@ -69818,12 +69858,12 @@
         <v>136</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N18" s="83"/>
       <c r="O18" s="83"/>
       <c r="P18" s="83">
-        <f>'NOVEMBER 21'!S17:S55</f>
+        <f>'NOVEMBER 21'!S18:S56</f>
         <v>0</v>
       </c>
       <c r="Q18" s="83">
@@ -69837,309 +69877,320 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="164"/>
       <c r="C19" s="10">
-        <f>'NOVEMBER 21'!G18:G31</f>
+        <f>SUM(C5:C18)</f>
         <v>64000</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="D19" s="164">
+        <f>SUM(D5:D18)</f>
+        <v>38500</v>
+      </c>
+      <c r="E19" s="164">
+        <f>SUM(E5:E18)</f>
+        <v>102500</v>
+      </c>
+      <c r="F19" s="164">
+        <f>SUM(F5:F18)</f>
+        <v>12500</v>
+      </c>
+      <c r="G19" s="164">
+        <f>SUM(G5:G18)</f>
+        <v>90000</v>
+      </c>
       <c r="H19" s="85"/>
       <c r="I19" s="69"/>
       <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="94" t="s">
-        <v>136</v>
+      <c r="K19" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="83" t="s">
+        <v>358</v>
       </c>
       <c r="M19" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="N19" s="83"/>
+        <v>281</v>
+      </c>
+      <c r="N19" s="83">
+        <v>2500</v>
+      </c>
       <c r="O19" s="83"/>
       <c r="P19" s="83">
-        <f>'NOVEMBER 21'!S18:S56</f>
+        <f>'NOVEMBER 21'!S19:S57</f>
         <v>0</v>
       </c>
       <c r="Q19" s="83">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="83"/>
+        <v>2500</v>
+      </c>
+      <c r="R19" s="83">
+        <v>2500</v>
+      </c>
       <c r="S19" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="164"/>
-      <c r="C20" s="10">
-        <f>SUM(C6:C19)</f>
-        <v>120500</v>
-      </c>
-      <c r="D20" s="164">
-        <f>SUM(D6:D19)</f>
-        <v>38500</v>
-      </c>
-      <c r="E20" s="164">
-        <f>SUM(E6:E19)</f>
-        <v>95000</v>
-      </c>
-      <c r="F20" s="164">
-        <f>SUM(F6:F19)</f>
-        <v>13500</v>
-      </c>
-      <c r="G20" s="164">
-        <f>SUM(G6:G19)</f>
-        <v>81500</v>
+      <c r="A20" s="168"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="10" t="e">
+        <f>'SEPT 21'!G21:G36</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168">
+        <f>G5+G10+G11+G12+G13</f>
+        <v>27500</v>
       </c>
       <c r="H20" s="85"/>
       <c r="I20" s="69"/>
       <c r="J20" s="69"/>
-      <c r="K20" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="83" t="s">
-        <v>358</v>
+      <c r="K20" s="69"/>
+      <c r="L20" s="124" t="s">
+        <v>364</v>
       </c>
       <c r="M20" s="83" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N20" s="83">
         <v>2500</v>
       </c>
       <c r="O20" s="83"/>
       <c r="P20" s="83">
-        <f>'NOVEMBER 21'!S19:S57</f>
+        <f>'NOVEMBER 21'!S20:S58</f>
         <v>2500</v>
       </c>
       <c r="Q20" s="83">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="R20" s="83">
-        <v>2500</v>
-      </c>
+      <c r="R20" s="83"/>
       <c r="S20" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="168"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="10">
-        <f>'SEPT 21'!G21:G36</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168">
-        <f>G6+G11+G12+G13+G14</f>
-        <v>31500</v>
-      </c>
+      <c r="A21" s="172" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="85"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="85"/>
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
       <c r="K21" s="69"/>
-      <c r="L21" s="124" t="s">
-        <v>364</v>
+      <c r="L21" s="94" t="s">
+        <v>136</v>
       </c>
       <c r="M21" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="N21" s="83">
-        <v>2500</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N21" s="83"/>
       <c r="O21" s="83"/>
       <c r="P21" s="83">
-        <f>'NOVEMBER 21'!S20:S58</f>
+        <f>'NOVEMBER 21'!S21:S59</f>
         <v>0</v>
       </c>
       <c r="Q21" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R21" s="83"/>
       <c r="S21" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="172" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
+      <c r="A22" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="95" t="s">
+        <v>98</v>
+      </c>
       <c r="I22" s="69"/>
       <c r="J22" s="69"/>
       <c r="K22" s="69"/>
-      <c r="L22" s="94" t="s">
-        <v>136</v>
+      <c r="L22" s="124" t="s">
+        <v>366</v>
       </c>
       <c r="M22" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="N22" s="83"/>
+        <v>284</v>
+      </c>
+      <c r="N22" s="83">
+        <v>2500</v>
+      </c>
       <c r="O22" s="83"/>
       <c r="P22" s="83">
-        <f>'NOVEMBER 21'!S21:S59</f>
+        <f>'NOVEMBER 21'!S22:S60</f>
         <v>5000</v>
       </c>
       <c r="Q22" s="83">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="83">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="95" t="s">
-        <v>98</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B23" s="137">
+        <f>F19</f>
+        <v>12500</v>
+      </c>
+      <c r="C23" s="85"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="137">
+        <f>F19</f>
+        <v>12500</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="69"/>
       <c r="J23" s="69"/>
       <c r="K23" s="69"/>
-      <c r="L23" s="124" t="s">
-        <v>366</v>
+      <c r="L23" s="94" t="s">
+        <v>136</v>
       </c>
       <c r="M23" s="83" t="s">
-        <v>284</v>
-      </c>
-      <c r="N23" s="83">
-        <v>2500</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N23" s="83"/>
       <c r="O23" s="83"/>
       <c r="P23" s="83">
-        <f>'NOVEMBER 21'!S22:S60</f>
+        <f>'NOVEMBER 21'!S23:S61</f>
         <v>0</v>
       </c>
       <c r="Q23" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R23" s="83"/>
       <c r="S23" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
-        <v>173</v>
+      <c r="A24" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="B24" s="137">
-        <f>F20</f>
-        <v>13500</v>
-      </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138" t="s">
-        <v>173</v>
+        <f>'NOVEMBER 21'!D33</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="F24" s="137">
-        <f>F20</f>
-        <v>13500</v>
-      </c>
-      <c r="G24" s="85"/>
+        <f>'NOVEMBER 21'!H33</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="69"/>
       <c r="J24" s="69"/>
       <c r="K24" s="69"/>
-      <c r="L24" s="94" t="s">
-        <v>136</v>
+      <c r="L24" s="83" t="s">
+        <v>313</v>
       </c>
       <c r="M24" s="83" t="s">
-        <v>285</v>
-      </c>
-      <c r="N24" s="83"/>
+        <v>286</v>
+      </c>
+      <c r="N24" s="83">
+        <v>2500</v>
+      </c>
       <c r="O24" s="83"/>
       <c r="P24" s="83">
-        <f>'NOVEMBER 21'!S23:S61</f>
+        <f>'NOVEMBER 21'!S24:S62</f>
         <v>2500</v>
       </c>
       <c r="Q24" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="R24" s="83"/>
       <c r="S24" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="137">
-        <f>'NOVEMBER 21'!D33</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="B25" s="139">
+        <v>0.08</v>
+      </c>
+      <c r="C25" s="10">
+        <f>B25*B23</f>
+        <v>1000</v>
+      </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="137">
-        <f>'NOVEMBER 21'!H33</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="139">
+        <v>0.08</v>
+      </c>
+      <c r="G25" s="10">
+        <f>C25</f>
+        <v>1000</v>
+      </c>
       <c r="H25" s="10"/>
       <c r="I25" s="69"/>
       <c r="J25" s="69"/>
       <c r="K25" s="69"/>
       <c r="L25" s="83" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="M25" s="83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N25" s="83">
         <v>2500</v>
       </c>
       <c r="O25" s="83"/>
       <c r="P25" s="83">
-        <f>'NOVEMBER 21'!S24:S62</f>
+        <f>'NOVEMBER 21'!S25:S63</f>
         <v>2500</v>
       </c>
       <c r="Q25" s="83">
@@ -70153,117 +70204,105 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="139">
-        <v>0.08</v>
-      </c>
-      <c r="C26" s="10">
-        <f>B26*B24</f>
-        <v>1080</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="139">
-        <v>0.08</v>
-      </c>
-      <c r="G26" s="10">
-        <f>C26</f>
-        <v>1080</v>
-      </c>
+      <c r="A26" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="69"/>
       <c r="J26" s="69"/>
       <c r="K26" s="69"/>
-      <c r="L26" s="83" t="s">
-        <v>332</v>
+      <c r="L26" s="94" t="s">
+        <v>136</v>
       </c>
       <c r="M26" s="83" t="s">
-        <v>287</v>
-      </c>
-      <c r="N26" s="83">
-        <v>2500</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N26" s="83"/>
       <c r="O26" s="83"/>
       <c r="P26" s="83">
-        <f>'NOVEMBER 21'!S25:S63</f>
+        <f>'NOVEMBER 21'!S26:S64</f>
         <v>0</v>
       </c>
       <c r="Q26" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R26" s="83"/>
       <c r="S26" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="104" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
+      <c r="A27" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="69"/>
       <c r="J27" s="69"/>
       <c r="K27" s="69"/>
-      <c r="L27" s="94" t="s">
-        <v>136</v>
+      <c r="L27" s="178" t="s">
+        <v>365</v>
       </c>
       <c r="M27" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="N27" s="83"/>
+        <v>289</v>
+      </c>
+      <c r="N27" s="83">
+        <v>2500</v>
+      </c>
       <c r="O27" s="83"/>
       <c r="P27" s="83">
-        <f>'NOVEMBER 21'!S26:S64</f>
+        <f>'NOVEMBER 21'!S27:S65</f>
         <v>2500</v>
       </c>
       <c r="Q27" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="R27" s="83"/>
       <c r="S27" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="10"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="69"/>
       <c r="J28" s="69"/>
       <c r="K28" s="69"/>
-      <c r="L28" s="178" t="s">
-        <v>365</v>
+      <c r="L28" s="83" t="s">
+        <v>327</v>
       </c>
       <c r="M28" s="83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N28" s="83">
         <v>2500</v>
       </c>
       <c r="O28" s="83"/>
       <c r="P28" s="83">
-        <f>'NOVEMBER 21'!S27:S65</f>
+        <f>'NOVEMBER 21'!S28:S66</f>
         <v>0</v>
       </c>
       <c r="Q28" s="83">
@@ -70277,29 +70316,29 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="10"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
       <c r="H29" s="10"/>
       <c r="I29" s="69"/>
       <c r="J29" s="69"/>
       <c r="K29" s="69"/>
-      <c r="L29" s="83" t="s">
-        <v>327</v>
+      <c r="L29" s="124" t="s">
+        <v>357</v>
       </c>
       <c r="M29" s="83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N29" s="83">
         <v>2500</v>
       </c>
       <c r="O29" s="83"/>
       <c r="P29" s="83">
-        <f>'NOVEMBER 21'!S28:S66</f>
+        <f>'NOVEMBER 21'!S29:S67</f>
         <v>2500</v>
       </c>
       <c r="Q29" s="83">
@@ -70313,73 +70352,75 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="69"/>
       <c r="J30" s="69"/>
       <c r="K30" s="69"/>
-      <c r="L30" s="124" t="s">
-        <v>357</v>
+      <c r="L30" s="94" t="s">
+        <v>314</v>
       </c>
       <c r="M30" s="83" t="s">
-        <v>291</v>
-      </c>
-      <c r="N30" s="83">
-        <v>2500</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N30" s="83"/>
       <c r="O30" s="83"/>
       <c r="P30" s="83">
-        <f>'NOVEMBER 21'!S29:S67</f>
+        <f>'NOVEMBER 21'!S30:S68</f>
         <v>0</v>
       </c>
       <c r="Q30" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R30" s="83"/>
       <c r="S30" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="142"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="143"/>
       <c r="E31" s="142"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="144"/>
       <c r="H31" s="10"/>
       <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="94" t="s">
-        <v>314</v>
+      <c r="J31" s="65"/>
+      <c r="K31" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="L31" s="83" t="s">
+        <v>315</v>
       </c>
       <c r="M31" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="N31" s="83"/>
+        <v>293</v>
+      </c>
+      <c r="N31" s="83">
+        <v>2500</v>
+      </c>
       <c r="O31" s="83"/>
       <c r="P31" s="83">
-        <f>'NOVEMBER 21'!S30:S68</f>
+        <f>'NOVEMBER 21'!S31:S69</f>
         <v>2500</v>
       </c>
       <c r="Q31" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="R31" s="83"/>
       <c r="S31" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -70392,22 +70433,20 @@
       <c r="G32" s="144"/>
       <c r="H32" s="10"/>
       <c r="I32" s="69"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="69" t="s">
-        <v>344</v>
-      </c>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
       <c r="L32" s="83" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M32" s="83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N32" s="83">
         <v>2500</v>
       </c>
       <c r="O32" s="83"/>
       <c r="P32" s="83">
-        <f>'NOVEMBER 21'!S31:S69</f>
+        <f>'NOVEMBER 21'!S32:S70</f>
         <v>2500</v>
       </c>
       <c r="Q32" s="83">
@@ -70421,90 +70460,92 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="142"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="10"/>
+      <c r="A33" s="164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="165">
+        <f>B23+B24+B26-C25</f>
+        <v>11500</v>
+      </c>
+      <c r="C33" s="164">
+        <f>SUM(C28:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="165">
+        <f>B33-C33</f>
+        <v>11500</v>
+      </c>
+      <c r="E33" s="166"/>
+      <c r="F33" s="165">
+        <f>F23+F24-G25</f>
+        <v>11500</v>
+      </c>
+      <c r="G33" s="165">
+        <f>SUM(G28:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="165">
+        <f>F33-G33</f>
+        <v>11500</v>
+      </c>
       <c r="I33" s="69"/>
       <c r="J33" s="69"/>
       <c r="K33" s="69"/>
-      <c r="L33" s="83" t="s">
-        <v>316</v>
+      <c r="L33" s="94" t="s">
+        <v>136</v>
       </c>
       <c r="M33" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="N33" s="83">
-        <v>2500</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N33" s="83"/>
       <c r="O33" s="83"/>
       <c r="P33" s="83">
-        <f>'NOVEMBER 21'!S32:S70</f>
+        <f>'NOVEMBER 21'!S33:S71</f>
         <v>0</v>
       </c>
       <c r="Q33" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R33" s="83"/>
       <c r="S33" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="164" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="165">
-        <f>B24+B25+B27-C26</f>
-        <v>12420</v>
-      </c>
-      <c r="C34" s="164">
-        <f>SUM(C29:C33)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="165">
-        <f>B34-C34</f>
-        <v>12420</v>
-      </c>
-      <c r="E34" s="166"/>
-      <c r="F34" s="165">
-        <f>F24+F25-G26</f>
-        <v>12420</v>
-      </c>
-      <c r="G34" s="165">
-        <f>SUM(G29:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="165">
-        <f>F34-G34</f>
-        <v>12420</v>
-      </c>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
       <c r="I34" s="69"/>
       <c r="J34" s="69"/>
       <c r="K34" s="69"/>
-      <c r="L34" s="94" t="s">
-        <v>136</v>
+      <c r="L34" s="124" t="s">
+        <v>354</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>295</v>
-      </c>
-      <c r="N34" s="83"/>
+        <v>296</v>
+      </c>
+      <c r="N34" s="83">
+        <v>2500</v>
+      </c>
       <c r="O34" s="83"/>
       <c r="P34" s="83">
-        <f>'NOVEMBER 21'!S33:S71</f>
+        <f>'NOVEMBER 21'!S34:S72</f>
         <v>0</v>
       </c>
       <c r="Q34" s="83">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="83"/>
+        <v>2500</v>
+      </c>
+      <c r="R34" s="83">
+        <v>2500</v>
+      </c>
       <c r="S34" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -70522,18 +70563,18 @@
       <c r="I35" s="69"/>
       <c r="J35" s="69"/>
       <c r="K35" s="69"/>
-      <c r="L35" s="124" t="s">
-        <v>354</v>
+      <c r="L35" s="83" t="s">
+        <v>319</v>
       </c>
       <c r="M35" s="83" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N35" s="83">
         <v>2500</v>
       </c>
       <c r="O35" s="83"/>
       <c r="P35" s="83">
-        <f>'NOVEMBER 21'!S34:S72</f>
+        <f>'NOVEMBER 21'!S35:S73</f>
         <v>0</v>
       </c>
       <c r="Q35" s="83">
@@ -70549,106 +70590,110 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="69" t="s">
+        <v>168</v>
+      </c>
       <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="C36" s="69" t="s">
+        <v>170</v>
+      </c>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
+      <c r="F36" s="69" t="s">
+        <v>171</v>
+      </c>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
       <c r="I36" s="69"/>
       <c r="J36" s="69"/>
       <c r="K36" s="69"/>
-      <c r="L36" s="83" t="s">
-        <v>319</v>
+      <c r="L36" s="178" t="s">
+        <v>361</v>
       </c>
       <c r="M36" s="83" t="s">
-        <v>297</v>
-      </c>
-      <c r="N36" s="83">
-        <v>2500</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N36" s="83"/>
       <c r="O36" s="83"/>
       <c r="P36" s="83">
-        <f>'NOVEMBER 21'!S35:S73</f>
+        <f>'NOVEMBER 21'!S36:S74</f>
         <v>0</v>
       </c>
       <c r="Q36" s="83">
-        <f t="shared" si="2"/>
-        <v>2500</v>
-      </c>
-      <c r="R36" s="83">
-        <v>2500</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="R36" s="83"/>
       <c r="S36" s="83">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
-        <v>168</v>
-      </c>
+      <c r="A37" s="69"/>
       <c r="B37" s="69"/>
-      <c r="C37" s="69" t="s">
-        <v>170</v>
-      </c>
+      <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="69"/>
-      <c r="F37" s="69" t="s">
-        <v>171</v>
-      </c>
+      <c r="F37" s="69"/>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
       <c r="I37" s="69"/>
       <c r="J37" s="69"/>
       <c r="K37" s="69"/>
       <c r="L37" s="178" t="s">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="M37" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="N37" s="83"/>
+        <v>299</v>
+      </c>
+      <c r="N37" s="83">
+        <v>2500</v>
+      </c>
       <c r="O37" s="83"/>
       <c r="P37" s="83">
-        <f>'NOVEMBER 21'!S36:S74</f>
+        <f>'NOVEMBER 21'!S37:S75</f>
         <v>2500</v>
       </c>
       <c r="Q37" s="83">
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>5000</v>
       </c>
       <c r="R37" s="83"/>
       <c r="S37" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
+      <c r="A38" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="20"/>
       <c r="H38" s="69"/>
       <c r="I38" s="69"/>
       <c r="J38" s="69"/>
       <c r="K38" s="69"/>
       <c r="L38" s="178" t="s">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="M38" s="83" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N38" s="83">
         <v>2500</v>
       </c>
       <c r="O38" s="83"/>
       <c r="P38" s="83">
-        <f>'NOVEMBER 21'!S37:S75</f>
+        <f>'NOVEMBER 21'!S38:S76</f>
         <v>2500</v>
       </c>
       <c r="Q38" s="83">
@@ -70662,45 +70707,37 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="20"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
       <c r="H39" s="69"/>
       <c r="I39" s="69"/>
       <c r="J39" s="69"/>
       <c r="K39" s="69"/>
-      <c r="L39" s="178" t="s">
-        <v>362</v>
+      <c r="L39" s="94" t="s">
+        <v>136</v>
       </c>
       <c r="M39" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="N39" s="83">
-        <v>2500</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N39" s="83"/>
       <c r="O39" s="83"/>
       <c r="P39" s="83">
-        <f>'NOVEMBER 21'!S38:S76</f>
+        <f>'NOVEMBER 21'!S39:S77</f>
         <v>0</v>
       </c>
       <c r="Q39" s="83">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R39" s="83"/>
       <c r="S39" s="83">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -70715,23 +70752,27 @@
       <c r="I40" s="69"/>
       <c r="J40" s="69"/>
       <c r="K40" s="69"/>
-      <c r="L40" s="94" t="s">
-        <v>136</v>
+      <c r="L40" s="83" t="s">
+        <v>321</v>
       </c>
       <c r="M40" s="83" t="s">
-        <v>301</v>
-      </c>
-      <c r="N40" s="83"/>
+        <v>322</v>
+      </c>
+      <c r="N40" s="83">
+        <v>7000</v>
+      </c>
       <c r="O40" s="83"/>
       <c r="P40" s="83">
-        <f>'NOVEMBER 21'!S39:S77</f>
+        <f>'NOVEMBER 21'!S40:S78</f>
         <v>0</v>
       </c>
       <c r="Q40" s="83">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="83"/>
+        <v>7000</v>
+      </c>
+      <c r="R40" s="83">
+        <v>7000</v>
+      </c>
       <c r="S40" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -70750,29 +70791,27 @@
       <c r="J41" s="69"/>
       <c r="K41" s="69"/>
       <c r="L41" s="83" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M41" s="83" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="N41" s="83">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O41" s="83"/>
       <c r="P41" s="83">
-        <f>'NOVEMBER 21'!S40:S78</f>
+        <f>'NOVEMBER 21'!S41:S79</f>
         <v>0</v>
       </c>
       <c r="Q41" s="83">
         <f t="shared" si="2"/>
-        <v>7000</v>
-      </c>
-      <c r="R41" s="83">
-        <v>7000</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="R41" s="83"/>
       <c r="S41" s="83">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -70791,14 +70830,14 @@
         <v>323</v>
       </c>
       <c r="M42" s="83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N42" s="83">
         <v>2500</v>
       </c>
       <c r="O42" s="83"/>
       <c r="P42" s="83">
-        <f>'NOVEMBER 21'!S41:S79</f>
+        <f>'NOVEMBER 21'!S42:S80</f>
         <v>0</v>
       </c>
       <c r="Q42" s="83">
@@ -70823,18 +70862,18 @@
       <c r="I43" s="69"/>
       <c r="J43" s="69"/>
       <c r="K43" s="69"/>
-      <c r="L43" s="83" t="s">
-        <v>323</v>
+      <c r="L43" s="178" t="s">
+        <v>326</v>
       </c>
       <c r="M43" s="83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N43" s="83">
         <v>2500</v>
       </c>
       <c r="O43" s="83"/>
       <c r="P43" s="83">
-        <f>'NOVEMBER 21'!S42:S80</f>
+        <f>'NOVEMBER 21'!S43:S81</f>
         <v>0</v>
       </c>
       <c r="Q43" s="83">
@@ -70853,34 +70892,39 @@
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
       <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
+      <c r="F44" s="65"/>
       <c r="G44" s="69"/>
       <c r="H44" s="69"/>
       <c r="I44" s="69"/>
       <c r="J44" s="69"/>
       <c r="K44" s="69"/>
-      <c r="L44" s="178" t="s">
-        <v>326</v>
-      </c>
-      <c r="M44" s="83" t="s">
-        <v>304</v>
-      </c>
+      <c r="L44" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="83"/>
       <c r="N44" s="83">
-        <v>2500</v>
-      </c>
-      <c r="O44" s="83"/>
+        <f t="shared" ref="N44:S44" si="4">SUM(N5:N43)</f>
+        <v>59500</v>
+      </c>
+      <c r="O44" s="83">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
       <c r="P44" s="83">
-        <f>'NOVEMBER 21'!S43:S81</f>
-        <v>37500</v>
+        <f>SUM(P5:P43)</f>
+        <v>35000</v>
       </c>
       <c r="Q44" s="83">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="R44" s="83"/>
+        <f t="shared" si="4"/>
+        <v>97500</v>
+      </c>
+      <c r="R44" s="83">
+        <f t="shared" si="4"/>
+        <v>17000</v>
+      </c>
       <c r="S44" s="83">
-        <f t="shared" si="3"/>
-        <v>40000</v>
+        <f t="shared" si="4"/>
+        <v>80500</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -70889,40 +70933,23 @@
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="69"/>
-      <c r="F45" s="65"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="69"/>
       <c r="H45" s="69"/>
       <c r="I45" s="69"/>
       <c r="J45" s="69"/>
       <c r="K45" s="69"/>
-      <c r="L45" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83">
-        <f t="shared" ref="N45:S45" si="4">SUM(N6:N44)</f>
-        <v>62000</v>
-      </c>
-      <c r="O45" s="83">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="P45" s="83">
-        <f>SUM(P6:P44)</f>
-        <v>72500</v>
-      </c>
-      <c r="Q45" s="83">
-        <f t="shared" si="4"/>
-        <v>135000</v>
-      </c>
-      <c r="R45" s="83">
-        <f t="shared" si="4"/>
-        <v>14500</v>
-      </c>
-      <c r="S45" s="83">
-        <f t="shared" si="4"/>
-        <v>120500</v>
-      </c>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69">
+        <f>R44-O44</f>
+        <v>16500</v>
+      </c>
+      <c r="S45" s="69"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="69"/>
@@ -70942,17 +70969,14 @@
       <c r="O46" s="69"/>
       <c r="P46" s="69"/>
       <c r="Q46" s="69"/>
-      <c r="R46" s="69">
-        <f>R45-O45</f>
-        <v>14000</v>
-      </c>
+      <c r="R46" s="69"/>
       <c r="S46" s="69"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="69"/>
       <c r="B47" s="69"/>
       <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="69"/>
       <c r="F47" s="69"/>
       <c r="G47" s="69"/>
@@ -70960,35 +70984,42 @@
       <c r="I47" s="69"/>
       <c r="J47" s="69"/>
       <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="69"/>
-      <c r="Q47" s="69"/>
-      <c r="R47" s="69"/>
-      <c r="S47" s="69"/>
+      <c r="L47" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="85"/>
+      <c r="S47" s="85"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="69"/>
       <c r="B48" s="69"/>
       <c r="C48" s="69"/>
-      <c r="D48" s="65"/>
+      <c r="D48" s="69"/>
       <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
+      <c r="F48" s="65">
+        <f>65000-M51</f>
+        <v>34202</v>
+      </c>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
       <c r="I48" s="69"/>
       <c r="J48" s="69"/>
       <c r="K48" s="69"/>
-      <c r="L48" s="167" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="16"/>
+      <c r="L48" s="172" t="s">
+        <v>180</v>
+      </c>
+      <c r="M48" s="85"/>
+      <c r="N48" s="134"/>
+      <c r="O48" s="162"/>
+      <c r="P48" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q48" s="85"/>
       <c r="R48" s="85"/>
       <c r="S48" s="85"/>
     </row>
@@ -70997,68 +71028,68 @@
       <c r="B49" s="69"/>
       <c r="C49" s="69"/>
       <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
       <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
+      <c r="J49" s="65"/>
       <c r="K49" s="69"/>
-      <c r="L49" s="172" t="s">
-        <v>180</v>
-      </c>
-      <c r="M49" s="85"/>
-      <c r="N49" s="134"/>
-      <c r="O49" s="162"/>
-      <c r="P49" s="136" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q49" s="85"/>
-      <c r="R49" s="85"/>
-      <c r="S49" s="85"/>
+      <c r="L49" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="M49" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="N49" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="O49" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q49" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="R49" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="S49" s="95" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="69"/>
       <c r="B50" s="69"/>
       <c r="C50" s="69"/>
       <c r="D50" s="69"/>
-      <c r="E50" s="65">
-        <f>D34+O61</f>
-        <v>54298</v>
-      </c>
+      <c r="E50" s="69"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
       <c r="I50" s="69"/>
-      <c r="J50" s="65">
-        <f>H34+S61</f>
-        <v>54298</v>
-      </c>
+      <c r="J50" s="69"/>
       <c r="K50" s="69"/>
       <c r="L50" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="M50" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="N50" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="O50" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="P50" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q50" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="R50" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="S50" s="95" t="s">
-        <v>98</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M50" s="137">
+        <f>R45</f>
+        <v>16500</v>
+      </c>
+      <c r="N50" s="85"/>
+      <c r="O50" s="137"/>
+      <c r="P50" s="138" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q50" s="137">
+        <f>R44</f>
+        <v>17000</v>
+      </c>
+      <c r="R50" s="85"/>
+      <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="69"/>
@@ -71072,23 +71103,23 @@
       <c r="I51" s="69"/>
       <c r="J51" s="69"/>
       <c r="K51" s="69"/>
-      <c r="L51" s="95" t="s">
-        <v>173</v>
+      <c r="L51" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="M51" s="137">
-        <f>R46</f>
-        <v>14000</v>
-      </c>
-      <c r="N51" s="85"/>
-      <c r="O51" s="137"/>
-      <c r="P51" s="138" t="s">
-        <v>173</v>
+        <f>'NOVEMBER 21'!O60</f>
+        <v>30798</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="Q51" s="137">
-        <f>R45</f>
-        <v>14500</v>
-      </c>
-      <c r="R51" s="85"/>
+        <f>'NOVEMBER 21'!S60</f>
+        <v>30798</v>
+      </c>
+      <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -71104,22 +71135,24 @@
       <c r="J52" s="69"/>
       <c r="K52" s="69"/>
       <c r="L52" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="M52" s="137">
-        <f>'NOVEMBER 21'!O60</f>
-        <v>28498</v>
-      </c>
-      <c r="N52" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="M52" s="139">
+        <v>0.08</v>
+      </c>
+      <c r="N52" s="10">
+        <f>M52*M50</f>
+        <v>1320</v>
+      </c>
       <c r="O52" s="10"/>
-      <c r="P52" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q52" s="137">
-        <f>'NOVEMBER 21'!S60</f>
-        <v>28498</v>
-      </c>
-      <c r="R52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="139">
+        <v>0.08</v>
+      </c>
+      <c r="R52" s="10">
+        <f>N52</f>
+        <v>1320</v>
+      </c>
       <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -71134,25 +71167,18 @@
       <c r="I53" s="69"/>
       <c r="J53" s="69"/>
       <c r="K53" s="69"/>
-      <c r="L53" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="M53" s="139">
-        <v>0.08</v>
-      </c>
-      <c r="N53" s="10">
-        <f>M53*M51</f>
-        <v>1120</v>
-      </c>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="139">
-        <v>0.08</v>
-      </c>
-      <c r="R53" s="10">
-        <f>N53</f>
-        <v>1120</v>
-      </c>
+      <c r="L53" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="M53" s="137">
+        <f>O44</f>
+        <v>500</v>
+      </c>
+      <c r="N53" s="137"/>
+      <c r="O53" s="137"/>
+      <c r="P53" s="137"/>
+      <c r="Q53" s="137"/>
+      <c r="R53" s="10"/>
       <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -71167,17 +71193,16 @@
       <c r="I54" s="69"/>
       <c r="J54" s="69"/>
       <c r="K54" s="69"/>
-      <c r="L54" s="104" t="s">
-        <v>324</v>
-      </c>
-      <c r="M54" s="137">
-        <f>O45</f>
-        <v>500</v>
-      </c>
-      <c r="N54" s="137"/>
-      <c r="O54" s="137"/>
-      <c r="P54" s="137"/>
-      <c r="Q54" s="137"/>
+      <c r="L54" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
     </row>
@@ -71193,17 +71218,21 @@
       <c r="I55" s="69"/>
       <c r="J55" s="69"/>
       <c r="K55" s="69"/>
-      <c r="L55" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
+      <c r="L55" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="M55" s="142"/>
+      <c r="N55" s="10">
+        <v>65000</v>
+      </c>
       <c r="O55" s="10"/>
-      <c r="P55" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
+      <c r="P55" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q55" s="142"/>
+      <c r="R55" s="10">
+        <v>65000</v>
+      </c>
       <c r="S55" s="10"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -71218,13 +71247,13 @@
       <c r="I56" s="69"/>
       <c r="J56" s="69"/>
       <c r="K56" s="69"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="142"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="142"/>
-      <c r="R56" s="10"/>
+      <c r="L56" s="161"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="161"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
       <c r="S56" s="10"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -71239,13 +71268,13 @@
       <c r="I57" s="69"/>
       <c r="J57" s="69"/>
       <c r="K57" s="69"/>
-      <c r="L57" s="161"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="161"/>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="83"/>
+      <c r="L57" s="142"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="142"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -71261,12 +71290,12 @@
       <c r="J58" s="69"/>
       <c r="K58" s="69"/>
       <c r="L58" s="142"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
+      <c r="M58" s="143"/>
+      <c r="N58" s="144"/>
+      <c r="O58" s="143"/>
       <c r="P58" s="142"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
+      <c r="Q58" s="143"/>
+      <c r="R58" s="144"/>
       <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -71299,17 +71328,40 @@
       <c r="F60" s="69"/>
       <c r="G60" s="69"/>
       <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
+      <c r="I60" s="179">
+        <f>D33+S60</f>
+        <v>-7022</v>
+      </c>
       <c r="J60" s="69"/>
       <c r="K60" s="69"/>
-      <c r="L60" s="142"/>
-      <c r="M60" s="143"/>
-      <c r="N60" s="144"/>
-      <c r="O60" s="143"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="143"/>
-      <c r="R60" s="144"/>
-      <c r="S60" s="10"/>
+      <c r="L60" s="164" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="165">
+        <f>M50+M51+M53-N52</f>
+        <v>46478</v>
+      </c>
+      <c r="N60" s="164">
+        <f>SUM(N55:N59)</f>
+        <v>65000</v>
+      </c>
+      <c r="O60" s="165">
+        <f>M60-N60</f>
+        <v>-18522</v>
+      </c>
+      <c r="P60" s="166"/>
+      <c r="Q60" s="165">
+        <f>Q50+Q51-R52</f>
+        <v>46478</v>
+      </c>
+      <c r="R60" s="165">
+        <f>SUM(R55:R58)</f>
+        <v>65000</v>
+      </c>
+      <c r="S60" s="165">
+        <f>Q60-R60</f>
+        <v>-18522</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="69"/>
@@ -71320,40 +71372,17 @@
       <c r="F61" s="69"/>
       <c r="G61" s="69"/>
       <c r="H61" s="69"/>
-      <c r="I61" s="179">
-        <f>D34+S61</f>
-        <v>54298</v>
-      </c>
+      <c r="I61" s="69"/>
       <c r="J61" s="69"/>
       <c r="K61" s="69"/>
-      <c r="L61" s="164" t="s">
-        <v>39</v>
-      </c>
-      <c r="M61" s="165">
-        <f>M51+M52+M54-N53</f>
-        <v>41878</v>
-      </c>
-      <c r="N61" s="164">
-        <f>SUM(N56:N60)</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="165">
-        <f>M61-N61</f>
-        <v>41878</v>
-      </c>
-      <c r="P61" s="166"/>
-      <c r="Q61" s="165">
-        <f>Q51+Q52-R53</f>
-        <v>41878</v>
-      </c>
-      <c r="R61" s="165">
-        <f>SUM(R56:R59)</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="165">
-        <f>Q61-R61</f>
-        <v>41878</v>
-      </c>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="69"/>
+      <c r="S61" s="69"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="69"/>
@@ -71386,14 +71415,23 @@
       <c r="G63" s="69"/>
       <c r="H63" s="69"/>
       <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
+      <c r="J63" s="65">
+        <f>O60+C29</f>
+        <v>-18522</v>
+      </c>
       <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
+      <c r="L63" s="69" t="s">
+        <v>168</v>
+      </c>
       <c r="M63" s="69"/>
-      <c r="N63" s="69"/>
+      <c r="N63" s="69" t="s">
+        <v>170</v>
+      </c>
       <c r="O63" s="69"/>
       <c r="P63" s="69"/>
-      <c r="Q63" s="69"/>
+      <c r="Q63" s="69" t="s">
+        <v>171</v>
+      </c>
       <c r="R63" s="69"/>
       <c r="S63" s="69"/>
     </row>
@@ -71407,23 +71445,14 @@
       <c r="G64" s="69"/>
       <c r="H64" s="69"/>
       <c r="I64" s="69"/>
-      <c r="J64" s="65">
-        <f>O61+C30</f>
-        <v>41878</v>
-      </c>
+      <c r="J64" s="69"/>
       <c r="K64" s="69"/>
-      <c r="L64" s="69" t="s">
-        <v>168</v>
-      </c>
+      <c r="L64" s="69"/>
       <c r="M64" s="69"/>
-      <c r="N64" s="69" t="s">
-        <v>170</v>
-      </c>
+      <c r="N64" s="69"/>
       <c r="O64" s="69"/>
       <c r="P64" s="69"/>
-      <c r="Q64" s="69" t="s">
-        <v>171</v>
-      </c>
+      <c r="Q64" s="69"/>
       <c r="R64" s="69"/>
       <c r="S64" s="69"/>
     </row>
@@ -71552,27 +71581,6 @@
       <c r="Q70" s="69"/>
       <c r="R70" s="69"/>
       <c r="S70" s="69"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="69"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="69"/>
-      <c r="N71" s="69"/>
-      <c r="O71" s="69"/>
-      <c r="P71" s="69"/>
-      <c r="Q71" s="69"/>
-      <c r="R71" s="69"/>
-      <c r="S71" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
